--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.4701564492911</v>
+        <v>191.0037171397756</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.0893710299388</v>
+        <v>261.3397122798096</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.6569819352221</v>
+        <v>236.3978169324907</v>
       </c>
       <c r="AD2" t="n">
-        <v>156470.1564492911</v>
+        <v>191003.7171397756</v>
       </c>
       <c r="AE2" t="n">
-        <v>214089.3710299388</v>
+        <v>261339.7122798096</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.343478510979317e-06</v>
+        <v>4.820173988983844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.091435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>193656.9819352221</v>
+        <v>236397.8169324907</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.98602435498123</v>
+        <v>133.4341546823431</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.4370454776189</v>
+        <v>182.5704971357437</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.5111239443584</v>
+        <v>165.1462251284616</v>
       </c>
       <c r="AD3" t="n">
-        <v>98986.02435498123</v>
+        <v>133434.1546823431</v>
       </c>
       <c r="AE3" t="n">
-        <v>135437.0454776189</v>
+        <v>182570.4971357437</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.528398514194927e-06</v>
+        <v>6.528430991315708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.712962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>122511.1239443584</v>
+        <v>165146.2251284616</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.99901225180656</v>
+        <v>121.8138642922361</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.3500837403838</v>
+        <v>166.6711031729763</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.8142160992368</v>
+        <v>150.7642470105561</v>
       </c>
       <c r="AD4" t="n">
-        <v>95999.01225180656</v>
+        <v>121813.8642922361</v>
       </c>
       <c r="AE4" t="n">
-        <v>131350.0837403838</v>
+        <v>166671.1031729763</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.688001913262928e-06</v>
+        <v>6.758525532140392e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.481481481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>118814.2160992368</v>
+        <v>150764.2470105561</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.7576976935525</v>
+        <v>150.4273919135642</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.7530329703336</v>
+        <v>205.821394004205</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.5064277184789</v>
+        <v>186.178089032643</v>
       </c>
       <c r="AD2" t="n">
-        <v>116757.6976935525</v>
+        <v>150427.3919135642</v>
       </c>
       <c r="AE2" t="n">
-        <v>159753.0329703336</v>
+        <v>205821.394004205</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.993601769923435e-06</v>
+        <v>5.84648275605117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.87037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>144506.4277184789</v>
+        <v>186178.089032643</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.10219848384152</v>
+        <v>117.4398100034219</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.0182912277664</v>
+        <v>160.6863291253676</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.9912823808042</v>
+        <v>145.3506513983662</v>
       </c>
       <c r="AD3" t="n">
-        <v>92102.19848384152</v>
+        <v>117439.8100034219</v>
       </c>
       <c r="AE3" t="n">
-        <v>126018.2912277664</v>
+        <v>160686.3291253676</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.808979562011413e-06</v>
+        <v>7.040165170009242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>113991.2823808042</v>
+        <v>145350.6513983661</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.26314837852885</v>
+        <v>114.5651040897991</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.8702658574001</v>
+        <v>156.7530296712767</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.9528229405215</v>
+        <v>141.792740523752</v>
       </c>
       <c r="AD2" t="n">
-        <v>91263.14837852886</v>
+        <v>114565.1040897991</v>
       </c>
       <c r="AE2" t="n">
-        <v>124870.2658574001</v>
+        <v>156753.0296712767</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.929083251095341e-06</v>
+        <v>7.625900200558827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.118055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>112952.8229405215</v>
+        <v>141792.740523752</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.71238479823292</v>
+        <v>117.7129059906392</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.2754662444368</v>
+        <v>161.0599911032228</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.0828603432488</v>
+        <v>145.6886516014928</v>
       </c>
       <c r="AD2" t="n">
-        <v>85712.38479823292</v>
+        <v>117712.9059906392</v>
       </c>
       <c r="AE2" t="n">
-        <v>117275.4662444368</v>
+        <v>161059.9911032228</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.987329096355731e-06</v>
+        <v>7.537320381944885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.730324074074075</v>
       </c>
       <c r="AH2" t="n">
-        <v>106082.8603432488</v>
+        <v>145688.6516014928</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.01786749757756</v>
+        <v>118.0183886899838</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.6934411506254</v>
+        <v>161.4779660094115</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.4609443110224</v>
+        <v>146.0667355692664</v>
       </c>
       <c r="AD3" t="n">
-        <v>86017.86749757755</v>
+        <v>118018.3886899838</v>
       </c>
       <c r="AE3" t="n">
-        <v>117693.4411506254</v>
+        <v>161477.9660094115</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.987097108677835e-06</v>
+        <v>7.536969780366528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.730324074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>106460.9443110224</v>
+        <v>146066.7355692664</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.89417805729151</v>
+        <v>120.1294246058557</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.9971802691759</v>
+        <v>164.3663784818376</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.2585020119447</v>
+        <v>148.6794820092375</v>
       </c>
       <c r="AD2" t="n">
-        <v>89894.17805729152</v>
+        <v>120129.4246058557</v>
       </c>
       <c r="AE2" t="n">
-        <v>122997.1802691759</v>
+        <v>164366.3784818376</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.747912070907325e-06</v>
+        <v>7.504018007271365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.673611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>111258.5020119447</v>
+        <v>148679.4820092375</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.5179455485923</v>
+        <v>164.3294248123325</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.5804111448807</v>
+        <v>224.8427687306962</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.5369473444445</v>
+        <v>203.3840904519111</v>
       </c>
       <c r="AD2" t="n">
-        <v>130517.9455485923</v>
+        <v>164329.4248123326</v>
       </c>
       <c r="AE2" t="n">
-        <v>178580.4111448808</v>
+        <v>224842.7687306962</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.815316750184642e-06</v>
+        <v>5.562297977937055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.16550925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>161536.9473444445</v>
+        <v>203384.0904519111</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.92957205911632</v>
+        <v>118.4374608710086</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.1503402546029</v>
+        <v>162.051359055649</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.0152902373605</v>
+        <v>146.5854047879335</v>
       </c>
       <c r="AD3" t="n">
-        <v>92929.57205911633</v>
+        <v>118437.4608710086</v>
       </c>
       <c r="AE3" t="n">
-        <v>127150.3402546029</v>
+        <v>162051.359055649</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.788986532442256e-06</v>
+        <v>6.98179780341494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.50462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>115015.2902373605</v>
+        <v>146585.4047879335</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.13964050314678</v>
+        <v>118.647529315039</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.4377651672908</v>
+        <v>162.338783968337</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.2752837197851</v>
+        <v>146.845398270358</v>
       </c>
       <c r="AD4" t="n">
-        <v>93139.64050314677</v>
+        <v>118647.529315039</v>
       </c>
       <c r="AE4" t="n">
-        <v>127437.7651672908</v>
+        <v>162338.783968337</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.786832872229344e-06</v>
+        <v>6.978658011719566e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>115275.283719785</v>
+        <v>146845.398270358</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.03885593032487</v>
+        <v>126.6950525084791</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.7728437359972</v>
+        <v>173.3497602332626</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.1011898777256</v>
+        <v>156.8055024145648</v>
       </c>
       <c r="AD2" t="n">
-        <v>97038.85593032488</v>
+        <v>126695.0525084791</v>
       </c>
       <c r="AE2" t="n">
-        <v>132772.8437359972</v>
+        <v>173349.7602332626</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.574574458208626e-06</v>
+        <v>7.329542838968161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.153935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>120101.1898777256</v>
+        <v>156805.5024145648</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.0172942051042</v>
+        <v>127.7170221795736</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.9528067336284</v>
+        <v>174.7480642233733</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.5004686875156</v>
+        <v>158.0703542343918</v>
       </c>
       <c r="AD2" t="n">
-        <v>103017.2942051042</v>
+        <v>127717.0221795736</v>
       </c>
       <c r="AE2" t="n">
-        <v>140952.8067336284</v>
+        <v>174748.0642233733</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.550086696760553e-06</v>
+        <v>6.75616527803422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.118055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>127500.4686875156</v>
+        <v>158070.3542343918</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.9234674475001</v>
+        <v>113.7084467679901</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.6690111881303</v>
+        <v>155.5809133305245</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.0570915238967</v>
+        <v>140.7324893214852</v>
       </c>
       <c r="AD3" t="n">
-        <v>88923.46744750011</v>
+        <v>113708.4467679901</v>
       </c>
       <c r="AE3" t="n">
-        <v>121669.0111881303</v>
+        <v>155580.9133305245</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.924344006193186e-06</v>
+        <v>7.311878697921244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>110057.0915238967</v>
+        <v>140732.4893214852</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.3901703652983</v>
+        <v>145.8241948518846</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.7771893981121</v>
+        <v>199.5230967056964</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.1009102696392</v>
+        <v>180.4808923885863</v>
       </c>
       <c r="AD2" t="n">
-        <v>112390.1703652983</v>
+        <v>145824.1948518846</v>
       </c>
       <c r="AE2" t="n">
-        <v>153777.1893981122</v>
+        <v>199523.0967056964</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.151920689900961e-06</v>
+        <v>6.105160552459154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.644675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>139100.9102696392</v>
+        <v>180480.8923885863</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.97897153768646</v>
+        <v>116.1398307571979</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.4814425667623</v>
+        <v>158.9076401696481</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.6011083990252</v>
+        <v>143.7417180201743</v>
       </c>
       <c r="AD3" t="n">
-        <v>90978.97153768646</v>
+        <v>116139.8307571979</v>
       </c>
       <c r="AE3" t="n">
-        <v>124481.4425667623</v>
+        <v>158907.6401696481</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.85158585384731e-06</v>
+        <v>7.133977930701756e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>112601.1083990252</v>
+        <v>143741.7180201743</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.8407327850042</v>
+        <v>184.6653679720779</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.0727481678499</v>
+        <v>252.6673033203397</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.5507174655779</v>
+        <v>228.5530905123075</v>
       </c>
       <c r="AD2" t="n">
-        <v>141840.7327850042</v>
+        <v>184665.3679720779</v>
       </c>
       <c r="AE2" t="n">
-        <v>194072.7481678498</v>
+        <v>252667.3033203397</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.490376175295884e-06</v>
+        <v>5.049780288338167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.778935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>175550.7174655779</v>
+        <v>228553.0905123075</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.00464143306201</v>
+        <v>121.8359679126208</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.3577858345194</v>
+        <v>166.7013463215296</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.8211831163182</v>
+        <v>150.791603795458</v>
       </c>
       <c r="AD3" t="n">
-        <v>96004.641433062</v>
+        <v>121835.9679126208</v>
       </c>
       <c r="AE3" t="n">
-        <v>131357.7858345194</v>
+        <v>166701.3463215296</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.659358122164428e-06</v>
+        <v>6.74103122985582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.574074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>118821.1831163182</v>
+        <v>150791.603795458</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.122529787338</v>
+        <v>120.9538562668968</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.1508417648212</v>
+        <v>165.4944022518313</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.7294280946749</v>
+        <v>149.6998487738147</v>
       </c>
       <c r="AD4" t="n">
-        <v>95122.52978733799</v>
+        <v>120953.8562668968</v>
       </c>
       <c r="AE4" t="n">
-        <v>130150.8417648212</v>
+        <v>165494.4022518313</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.706896650752778e-06</v>
+        <v>6.809808666024774e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>117729.4280946749</v>
+        <v>149699.8487738147</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.87234903625611</v>
+        <v>120.1702451144798</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.2308246057955</v>
+        <v>164.4222309026107</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.7561634504719</v>
+        <v>148.7300039533614</v>
       </c>
       <c r="AD2" t="n">
-        <v>87872.34903625611</v>
+        <v>120170.2451144798</v>
       </c>
       <c r="AE2" t="n">
-        <v>120230.8246057955</v>
+        <v>164422.2309026107</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.889402606763845e-06</v>
+        <v>7.342340666398969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.776620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>108756.1634504719</v>
+        <v>148730.0039533614</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.649682397864</v>
+        <v>118.9475784760877</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.5579181709031</v>
+        <v>162.7493244677183</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.2429168577861</v>
+        <v>147.2167573606757</v>
       </c>
       <c r="AD3" t="n">
-        <v>86649.682397864</v>
+        <v>118947.5784760877</v>
       </c>
       <c r="AE3" t="n">
-        <v>118557.9181709031</v>
+        <v>162749.3244677183</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.987221585274062e-06</v>
+        <v>7.489233921388362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.643518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>107242.9168577861</v>
+        <v>147216.7573606757</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.18140805981324</v>
+        <v>115.528835173563</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.1807163290052</v>
+        <v>158.0716490568965</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.1880304197453</v>
+        <v>142.9855127259025</v>
       </c>
       <c r="AD2" t="n">
-        <v>84181.40805981324</v>
+        <v>115528.835173563</v>
       </c>
       <c r="AE2" t="n">
-        <v>115180.7163290052</v>
+        <v>158071.6490568965</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.959086417984511e-06</v>
+        <v>7.605982671007273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.961805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>104188.0304197454</v>
+        <v>142985.5127259025</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.47800101559689</v>
+        <v>120.9804491753699</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.7959925971801</v>
+        <v>165.5307878424005</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.9810768125046</v>
+        <v>149.7327617746875</v>
       </c>
       <c r="AD2" t="n">
-        <v>90478.00101559689</v>
+        <v>120980.4491753699</v>
       </c>
       <c r="AE2" t="n">
-        <v>123795.9925971801</v>
+        <v>165530.7878424005</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.860322915546132e-06</v>
+        <v>7.594158683894628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.349537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>111981.0768125046</v>
+        <v>149732.7617746875</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.0575898326307</v>
+        <v>134.2247039778401</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.744429222699</v>
+        <v>183.6521615584156</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.025662644297</v>
+        <v>166.1246570167596</v>
       </c>
       <c r="AD2" t="n">
-        <v>105057.5898326307</v>
+        <v>134224.7039778401</v>
       </c>
       <c r="AE2" t="n">
-        <v>143744.4292226991</v>
+        <v>183652.1615584156</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.227892902076781e-06</v>
+        <v>6.890096155798927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.068287037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>130025.662644297</v>
+        <v>166124.6570167596</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.6241143897971</v>
+        <v>140.6423047460892</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.2560613488847</v>
+        <v>192.4330060540935</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.2021495289673</v>
+        <v>174.0674700377655</v>
       </c>
       <c r="AD2" t="n">
-        <v>107624.1143897971</v>
+        <v>140642.3047460892</v>
       </c>
       <c r="AE2" t="n">
-        <v>147256.0613488847</v>
+        <v>192433.0060540935</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.347029273206581e-06</v>
+        <v>6.422217606002154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.372685185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>133202.1495289672</v>
+        <v>174067.4700377655</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.89283983581916</v>
+        <v>114.869767608054</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.9953492555193</v>
+        <v>157.1698837377587</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.2568457476617</v>
+        <v>142.1698106231874</v>
       </c>
       <c r="AD3" t="n">
-        <v>89892.83983581916</v>
+        <v>114869.767608054</v>
       </c>
       <c r="AE3" t="n">
-        <v>122995.3492555193</v>
+        <v>157169.8837377587</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.899852456684354e-06</v>
+        <v>7.238947965703228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>111256.8457476617</v>
+        <v>142169.8106231874</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.5515732261078</v>
+        <v>169.5822532429133</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.4676426012344</v>
+        <v>232.0299203278483</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.766871096896</v>
+        <v>209.8853103878639</v>
       </c>
       <c r="AD2" t="n">
-        <v>135551.5732261078</v>
+        <v>169582.2532429133</v>
       </c>
       <c r="AE2" t="n">
-        <v>185467.6426012344</v>
+        <v>232029.9203278483</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.66134206766931e-06</v>
+        <v>5.316887506287712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>167766.8710968959</v>
+        <v>209885.310387864</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.2602155467381</v>
+        <v>119.9325049234293</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.9709853782136</v>
+        <v>164.0969442848586</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.6621755456659</v>
+        <v>148.4357622338649</v>
       </c>
       <c r="AD3" t="n">
-        <v>94260.21554673809</v>
+        <v>119932.5049234293</v>
       </c>
       <c r="AE3" t="n">
-        <v>128970.9853782136</v>
+        <v>164096.9442848586</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.732863246034043e-06</v>
+        <v>6.872917361099053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>116662.1755456659</v>
+        <v>148435.7622338649</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.0809964857757</v>
+        <v>119.5826936618747</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.7257699524181</v>
+        <v>163.6183170842162</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.4403631359462</v>
+        <v>148.0028145414941</v>
       </c>
       <c r="AD4" t="n">
-        <v>94080.9964857757</v>
+        <v>119582.6936618747</v>
       </c>
       <c r="AE4" t="n">
-        <v>128725.769952418</v>
+        <v>163618.3170842162</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.751812634213753e-06</v>
+        <v>6.90043507547875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.498842592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>116440.3631359462</v>
+        <v>148002.8145414941</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.2753647833783</v>
+        <v>157.8537741432344</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.3025485049215</v>
+        <v>215.9824977996958</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.3354280862598</v>
+        <v>195.3694313430942</v>
       </c>
       <c r="AD2" t="n">
-        <v>122275.3647833783</v>
+        <v>157853.7741432344</v>
       </c>
       <c r="AE2" t="n">
-        <v>167302.5485049215</v>
+        <v>215982.4977996958</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.57921290901259e-06</v>
+        <v>5.966334673248475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>151335.4280862598</v>
+        <v>195369.4313430942</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.15897723070981</v>
+        <v>116.8438002794012</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.5182695959332</v>
+        <v>159.8708423268697</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.397929480146</v>
+        <v>144.6129935153737</v>
       </c>
       <c r="AD2" t="n">
-        <v>85158.9772307098</v>
+        <v>116843.8002794012</v>
       </c>
       <c r="AE2" t="n">
-        <v>116518.2695959332</v>
+        <v>159870.8423268697</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.96516792834893e-06</v>
+        <v>7.556521948115159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.851851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>105397.929480146</v>
+        <v>144612.9935153737</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.50560652548349</v>
+        <v>123.0851502830362</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.833763673676</v>
+        <v>168.4105327507677</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.0152430704718</v>
+        <v>152.3376678707484</v>
       </c>
       <c r="AD2" t="n">
-        <v>90505.60652548348</v>
+        <v>123085.1502830362</v>
       </c>
       <c r="AE2" t="n">
-        <v>123833.763673676</v>
+        <v>168410.5327507677</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.76969502996773e-06</v>
+        <v>7.120728717459319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.869212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>112015.2430704718</v>
+        <v>152337.6678707484</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.14257638326404</v>
+        <v>120.7221201408167</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.6005615835607</v>
+        <v>165.1773306606524</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.0906132500084</v>
+        <v>149.413038050285</v>
       </c>
       <c r="AD3" t="n">
-        <v>88142.57638326404</v>
+        <v>120722.1201408167</v>
       </c>
       <c r="AE3" t="n">
-        <v>120600.5615835607</v>
+        <v>165177.3306606524</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.932250674041153e-06</v>
+        <v>7.36340977687006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.643518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>109090.6132500084</v>
+        <v>149413.038050285</v>
       </c>
     </row>
   </sheetData>
